--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Общая сумма</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Прораб</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -499,6 +504,11 @@
           <t>162645483</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -534,6 +544,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -567,6 +582,11 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>1476</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
         </is>
       </c>
     </row>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,46 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oxak</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,166 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>wsqwwq</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1212</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1321</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Summ</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>123123</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>162645483</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Shakhzod</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>qwert</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>summ</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Shakhzod</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ewqdewqdeede</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>summ</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1476</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Shakhzod</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Oxak</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Shakhzod</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,166 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Oxak</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>доллары</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>effrfwwpkp</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sjsnisb</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>effrfwwpkp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>111111111</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>effrfwwpkp</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>22222222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>effrfwwpkp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Прораб</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -476,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxak</t>
+          <t>Sjsnisb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,27 +491,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>доллары</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>effrfwwpkp</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>22.04.2021</t>
         </is>
       </c>
     </row>
@@ -516,17 +526,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sjsnisb</t>
+          <t>fgrgrg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>м^2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,17 +546,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>effrfwwpkp</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>22.04.2021</t>
         </is>
       </c>
     </row>
@@ -556,12 +571,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>111111111</t>
+          <t>122122112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>м</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -576,12 +591,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -589,44 +604,9 @@
           <t>effrfwwpkp</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>22222222</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>22.04.2021</t>
         </is>
       </c>
     </row>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sjsnisb</t>
+          <t>Ehhd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>м^3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>528</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22.04.2021</t>
+          <t>24.04.2021</t>
         </is>
       </c>
     </row>
@@ -526,17 +526,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fgrgrg</t>
+          <t>fwe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>м^2</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>400</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -561,52 +561,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22.04.2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>122122112</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>м</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>22.04.2021</t>
+          <t>26.04.2021</t>
         </is>
       </c>
     </row>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,51 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ttttt</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>effrfwwpkp</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Название</t>
@@ -451,25 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Суммы или доллары</t>
+          <t>Цена</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Цена</t>
+          <t>Всего (сум)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Общая сумма</t>
+          <t>Всего ($)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Прораб</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -496,25 +496,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>суммы</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>528.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>24.04.2021</t>
         </is>
@@ -522,7 +517,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -541,25 +536,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>суммы</t>
+          <t>400</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>400</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>400.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>26.04.2021</t>
         </is>
@@ -567,7 +557,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -586,27 +576,148 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>суммы</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
           <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>$400.0528</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,42 +556,44 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ttttt</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>528.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>400.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -618,17 +620,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>528.0</t>
+          <t>0.0528</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>400.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -660,12 +662,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>$400.0528</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -674,48 +676,6 @@
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$400.0528</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,126 +556,286 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ttttt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>528.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>400.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>26.04.2021</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Material1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>м</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>01.05.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>material2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>01.05.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>material3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>м^3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>01.05.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>588.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>10000.0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.0528</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$400.0528</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$450.0588</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fwe</t>
+          <t>ttttt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -536,17 +536,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>400.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ttttt</t>
+          <t>Material1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>м</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t>01.05.2021</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Material1</t>
+          <t>material2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>м</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>material2</t>
+          <t>rfreuwgfpslw</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>5000.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>01.05.2021</t>
+          <t>17.05.2021</t>
         </is>
       </c>
     </row>
@@ -681,161 +681,281 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>material3</t>
+          <t>dedede</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>м^3</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5000.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>17.05.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>wdwdw</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>01.05.2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>588.0</t>
+          <t>5000.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>450.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>17.05.2021</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>frfewrf</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>м</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17.05.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>kjgrguregfiuesas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>18.05.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15588.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>10000.0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$450.0588</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.5588</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>$8.5588</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,17 @@
           <t>Дата</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Остаток денег (сум)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Остаток денег ($)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -514,6 +525,17 @@
           <t>24.04.2021</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6505000.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>650.5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -521,12 +543,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ttttt</t>
+          <t>Material1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>м</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -536,12 +558,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -551,7 +573,18 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t>01.05.2021</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -561,12 +594,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Material1</t>
+          <t>material2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>м</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -576,12 +609,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -592,6 +625,17 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>01.05.2021</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -601,7 +645,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>material2</t>
+          <t>rfreuwgfpslw</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -616,12 +660,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>5000.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -631,7 +675,18 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>01.05.2021</t>
+          <t>17.05.2021</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -641,7 +696,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rfreuwgfpslw</t>
+          <t>dedede</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -672,6 +727,17 @@
       <c r="H6" t="inlineStr">
         <is>
           <t>17.05.2021</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -681,12 +747,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dedede</t>
+          <t>frfewrf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>м</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -696,22 +762,33 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5000.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>17.05.2021</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -721,12 +798,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wdwdw</t>
+          <t>kjgrguregfiuesas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>м</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -736,102 +813,147 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5000.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17.05.2021</t>
+          <t>18.05.2021</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frfewrf</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>м</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10588.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17.05.2021</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kjgrguregfiuesas</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1.0588</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18.05.2021</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -863,12 +985,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15588.0</t>
+          <t>$8.0588</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -876,86 +998,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10000.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.5588</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$8.5588</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,12 +528,12 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6505000.0</t>
+          <t>6484879.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>650.5</t>
+          <t>649.49</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Material1</t>
+          <t>ttttt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>м</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>01.05.2021</t>
+          <t>26.04.2021</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -594,12 +594,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>material2</t>
+          <t>Material1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>м</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rfreuwgfpslw</t>
+          <t>material2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5000.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17.05.2021</t>
+          <t>01.05.2021</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dedede</t>
+          <t>rfreuwgfpslw</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -747,12 +747,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frfewrf</t>
+          <t>dedede</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>м</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -762,17 +762,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5000.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>kjgrguregfiuesas</t>
+          <t>frfewrf</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>м</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18.05.2021</t>
+          <t>17.05.2021</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -844,171 +844,426 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>kjgrguregfiuesas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10588.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>18.05.2021</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>fwfewfew</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>м^3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20000.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>16.08.2021</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ededfef</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>20000.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>16.08.2021</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>qwedq</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>18.08.2021</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ef</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>м^3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>18.08.2021</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>50709.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>7.0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.0588</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$8.0588</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.007700000000001</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>$11.0077</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6484879.0</t>
+          <t>6484867.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1099,51 +1099,45 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>121</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>dewdew</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50709.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>18.08.2021</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1178,17 +1172,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.007700000000001</t>
+          <t>50721.0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1235,12 +1229,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$11.0077</t>
+          <t>5.0721</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1264,6 +1258,63 @@
         </is>
       </c>
       <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>$12.072099999999999</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/material_Object1.xlsx
+++ b/files/excel/material_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,12 +528,12 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6484867.0</t>
+          <t>6384867.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>649.49</t>
+          <t>639.49</t>
         </is>
       </c>
     </row>
@@ -1150,51 +1150,45 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>123</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>шт</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50721.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>04.11.2021</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1229,17 +1223,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.0721</t>
+          <t>50721.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1286,12 +1280,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$12.072099999999999</t>
+          <t>4.008900000000001</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1315,6 +1309,63 @@
         </is>
       </c>
       <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>$21.0089</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
